--- a/PictureConditions.xlsx
+++ b/PictureConditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lonnigomes/basicattempt/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lonnigomes/thesis/colas_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{684FDFD8-61A1-6046-B91D-5D7E31627980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6138B8D-0D5F-664A-9F2C-4A1C5F794847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="1640" windowWidth="27640" windowHeight="16440"/>
+    <workbookView xWindow="44580" yWindow="4080" windowWidth="27640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PictureConditions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>imageaddress</t>
   </si>
@@ -74,12 +74,27 @@
   </si>
   <si>
     <t>correctanswer</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>R-G def</t>
+  </si>
+  <si>
+    <t>24 plate number</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Hoffman menozzi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -557,8 +572,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -606,6 +622,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF022C88"/>
+      <color rgb="FF010300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -913,150 +935,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>73</v>
       </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
